--- a/figures/methods/Buffers.xlsx
+++ b/figures/methods/Buffers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaksonenlab/Desktop/dm/thesis_git/cloned/figures/results_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaksonenlab/Desktop/dm/thesis_git/cloned/figures/methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35480" yWindow="3600" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="1400" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,29 +132,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,10 +179,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,157 +462,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="12" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
